--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Documents\teamMssan\仕様書とか\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="2"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="828">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -5936,6 +5936,27 @@
   </si>
   <si>
     <t>genre_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンルコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品名コード</t>
+    <rPh sb="0" eb="3">
+      <t>サクヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の状態</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6388,8 +6409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14945,7 +14966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -15251,10 +15272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15369,7 +15390,82 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>827</v>
+      </c>
       <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15387,10 +15483,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15493,13 +15589,124 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>827</v>
+      </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
       <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15509,6 +15716,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="3"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="839">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -5739,28 +5739,6 @@
   </si>
   <si>
     <t>place</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索の利便性を考慮し新規追加</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リベン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5957,6 +5935,121 @@
     <rPh sb="3" eb="5">
       <t>ジョウタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象年齢は下記のように対応を定義する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>age_limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象年齢</t>
+    <rPh sb="0" eb="4">
+      <t>タイショウネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全年齢</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索の利便性を考慮し新規追加
+ラジオボタンより選択した値</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リベン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管場所は下記のように対応を定義する</t>
+    <rPh sb="0" eb="4">
+      <t>ホカンバショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住居</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実家</t>
+    <rPh sb="0" eb="2">
+      <t>ジッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管場所</t>
+    <rPh sb="0" eb="4">
+      <t>ホカンバショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>place</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6010,7 +6103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6018,11 +6111,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6045,6 +6273,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14964,10 +15228,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14991,217 +15255,226 @@
         <v>790</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="12" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="14" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>742</v>
       </c>
+      <c r="H5" s="14"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="E9" s="9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>789</v>
-      </c>
-      <c r="C7" t="s">
-        <v>797</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>777</v>
-      </c>
-      <c r="H7" t="s">
-        <v>814</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>795</v>
-      </c>
-      <c r="D8" t="s">
-        <v>775</v>
-      </c>
-      <c r="E8">
+      <c r="E11" s="16">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>777</v>
-      </c>
-      <c r="H8" t="s">
-        <v>813</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>799</v>
-      </c>
-      <c r="C9" t="s">
-        <v>773</v>
-      </c>
-      <c r="D9" t="s">
-        <v>774</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>800</v>
-      </c>
-      <c r="C10" t="s">
-        <v>801</v>
-      </c>
-      <c r="D10" t="s">
-        <v>774</v>
-      </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-      <c r="H10" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>810</v>
-      </c>
-      <c r="C11" t="s">
-        <v>811</v>
-      </c>
-      <c r="D11" t="s">
-        <v>775</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>812</v>
-      </c>
-      <c r="I11" t="s">
-        <v>813</v>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -15219,8 +15492,10 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>827</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -15230,8 +15505,12 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>828</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -15239,8 +15518,12 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -15248,17 +15531,55 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="D20" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C24" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="26" t="s">
+        <v>836</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B14:H19"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
@@ -15274,7 +15595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -15301,7 +15622,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15361,7 +15682,7 @@
         <v>805</v>
       </c>
       <c r="C5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -15391,13 +15712,13 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -15478,6 +15799,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15512,7 +15834,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15572,7 +15894,7 @@
         <v>782</v>
       </c>
       <c r="C5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -15590,13 +15912,13 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -15751,7 +16073,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15793,7 +16115,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G4" t="s">
         <v>742</v>
@@ -15828,7 +16150,7 @@
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -15957,7 +16279,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16013,7 +16335,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -16022,7 +16344,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -16034,7 +16356,7 @@
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="844">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -5913,10 +5913,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>genre_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャンルコード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6050,6 +6046,30 @@
   </si>
   <si>
     <t>place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hometown</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6271,9 +6291,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -6309,6 +6326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6674,7 +6694,7 @@
   <dimension ref="A1:N272"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15231,7 +15251,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C8" activeCellId="1" sqref="C11 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15257,219 +15277,219 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>50</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="13"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>813</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>813</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>812</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>8</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>200</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="13" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="s">
-        <v>832</v>
+      <c r="D11" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="E11" s="15">
+        <v>8</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -15494,7 +15514,7 @@
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -15505,11 +15525,11 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
-      <c r="C17" s="18" t="s">
-        <v>829</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>828</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>827</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -15518,11 +15538,11 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
-      <c r="C18" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0</v>
+      <c r="C18" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>839</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -15531,11 +15551,11 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
-      <c r="C19" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="D19" s="21">
-        <v>1</v>
+      <c r="C19" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>840</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -15543,40 +15563,40 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="22" t="s">
-        <v>833</v>
-      </c>
-      <c r="D20" s="23">
-        <v>2</v>
+      <c r="C20" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C24" s="24" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="24" t="s">
-        <v>837</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="13" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="25" t="s">
         <v>835</v>
       </c>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="D25" s="23">
-        <v>1</v>
+      <c r="D25" s="22" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -15596,7 +15616,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15712,13 +15732,13 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -15808,7 +15828,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15894,7 +15914,7 @@
         <v>782</v>
       </c>
       <c r="C5" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -15912,13 +15932,13 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -16149,90 +16169,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16355,90 +16375,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="2"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="828">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -5739,6 +5739,28 @@
   </si>
   <si>
     <t>place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索の利便性を考慮し新規追加</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リベン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5913,6 +5935,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>genre_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ジャンルコード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5931,145 +5957,6 @@
     <rPh sb="3" eb="5">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象年齢は下記のように対応を定義する</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>age_limit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象年齢</t>
-    <rPh sb="0" eb="4">
-      <t>タイショウネンレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全年齢</t>
-    <rPh sb="0" eb="3">
-      <t>ゼンネンレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R-15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索の利便性を考慮し新規追加
-ラジオボタンより選択した値</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リベン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R-18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保管場所は下記のように対応を定義する</t>
-    <rPh sb="0" eb="4">
-      <t>ホカンバショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住居</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウキョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実家</t>
-    <rPh sb="0" eb="2">
-      <t>ジッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保管場所</t>
-    <rPh sb="0" eb="4">
-      <t>ホカンバショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>place</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>genre_title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>house</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hometown</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6123,7 +6010,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -6131,146 +6018,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6289,42 +6041,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6694,7 +6410,7 @@
   <dimension ref="A1:N272"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M2" sqref="M2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15248,10 +14964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" activeCellId="1" sqref="C11 C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15275,226 +14991,217 @@
         <v>790</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B3" t="s">
         <v>731</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>732</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>733</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s">
         <v>734</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s">
         <v>735</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>736</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>787</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>778</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>775</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" t="s">
         <v>742</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>798</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>779</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s">
         <v>774</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" t="s">
         <v>742</v>
       </c>
-      <c r="H5" s="13"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>796</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" t="s">
         <v>775</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" t="s">
         <v>777</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C7" t="s">
+        <v>797</v>
+      </c>
+      <c r="D7" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>777</v>
+      </c>
+      <c r="H7" t="s">
+        <v>814</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>795</v>
+      </c>
+      <c r="D8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>777</v>
+      </c>
+      <c r="H8" t="s">
         <v>813</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>799</v>
+      </c>
+      <c r="C9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D9" t="s">
+        <v>774</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="H10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C11" t="s">
+        <v>811</v>
+      </c>
+      <c r="D11" t="s">
         <v>775</v>
       </c>
-      <c r="E7" s="8">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>812</v>
+      </c>
+      <c r="I11" t="s">
         <v>813</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="E9" s="8">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="13" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="E10" s="8">
-        <v>200</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="13" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>774</v>
-      </c>
-      <c r="E11" s="15">
-        <v>8</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -15512,10 +15219,8 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>826</v>
-      </c>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -15525,12 +15230,8 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
-      <c r="C17" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>827</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -15538,12 +15239,8 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
-      <c r="C18" s="19" t="s">
-        <v>829</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>839</v>
-      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -15551,55 +15248,17 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
-      <c r="C19" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>840</v>
-      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="21" t="s">
-        <v>832</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="24" t="s">
-        <v>834</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="25" t="s">
-        <v>835</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>843</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:H19"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
@@ -15615,8 +15274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15642,7 +15301,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15702,7 +15361,7 @@
         <v>805</v>
       </c>
       <c r="C5" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -15732,13 +15391,13 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -15819,7 +15478,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15828,7 +15486,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15854,7 +15512,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15914,7 +15572,7 @@
         <v>782</v>
       </c>
       <c r="C5" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -15932,13 +15590,13 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -16093,7 +15751,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16135,7 +15793,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G4" t="s">
         <v>742</v>
@@ -16169,90 +15827,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16299,7 +15957,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16355,7 +16013,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -16364,7 +16022,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -16375,90 +16033,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="3"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="844">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -5739,28 +5739,6 @@
   </si>
   <si>
     <t>place</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索の利便性を考慮し新規追加</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リベン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5935,10 +5913,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>genre_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャンルコード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5957,6 +5931,145 @@
     <rPh sb="3" eb="5">
       <t>ジョウタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象年齢は下記のように対応を定義する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>age_limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象年齢</t>
+    <rPh sb="0" eb="4">
+      <t>タイショウネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全年齢</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索の利便性を考慮し新規追加
+ラジオボタンより選択した値</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リベン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管場所は下記のように対応を定義する</t>
+    <rPh sb="0" eb="4">
+      <t>ホカンバショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住居</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実家</t>
+    <rPh sb="0" eb="2">
+      <t>ジッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管場所</t>
+    <rPh sb="0" eb="4">
+      <t>ホカンバショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hometown</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6010,7 +6123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6018,11 +6131,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6041,6 +6289,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6410,7 +6694,7 @@
   <dimension ref="A1:N272"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14964,10 +15248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" activeCellId="1" sqref="C11 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14991,217 +15275,226 @@
         <v>790</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="11" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="13" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>742</v>
       </c>
+      <c r="H5" s="13"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>789</v>
-      </c>
-      <c r="C7" t="s">
-        <v>797</v>
-      </c>
-      <c r="D7" t="s">
-        <v>775</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>777</v>
-      </c>
-      <c r="H7" t="s">
-        <v>814</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>795</v>
-      </c>
-      <c r="D8" t="s">
-        <v>775</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>777</v>
-      </c>
-      <c r="H8" t="s">
-        <v>813</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>799</v>
-      </c>
-      <c r="C9" t="s">
-        <v>773</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="8">
+        <v>200</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="13" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>800</v>
-      </c>
-      <c r="C10" t="s">
-        <v>801</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B11" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-      <c r="H10" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="E11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>810</v>
-      </c>
-      <c r="C11" t="s">
-        <v>811</v>
-      </c>
-      <c r="D11" t="s">
-        <v>775</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>812</v>
-      </c>
-      <c r="I11" t="s">
-        <v>813</v>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -15219,8 +15512,10 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>826</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -15230,8 +15525,12 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>827</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -15239,8 +15538,12 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>839</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -15248,17 +15551,55 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>840</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C24" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>843</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B14:H19"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
@@ -15274,8 +15615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15301,7 +15642,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15361,7 +15702,7 @@
         <v>805</v>
       </c>
       <c r="C5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -15391,13 +15732,13 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -15478,6 +15819,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15486,7 +15828,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15512,7 +15854,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15572,7 +15914,7 @@
         <v>782</v>
       </c>
       <c r="C5" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -15590,13 +15932,13 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -15751,7 +16093,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15793,7 +16135,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G4" t="s">
         <v>742</v>
@@ -15827,90 +16169,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15957,7 +16299,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16013,7 +16355,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -16022,7 +16364,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -16033,90 +16375,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -6693,7 +6693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="C193" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -15251,7 +15251,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" activeCellId="1" sqref="C11 C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15437,7 +15437,7 @@
         <v>773</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E9" s="8">
         <v>8</v>

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="2"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -6693,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C193" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C124" workbookViewId="0">
+      <selection activeCell="C133" sqref="A133:XFD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15250,7 +15250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -15616,7 +15616,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -6693,7 +6693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C124" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="C124" workbookViewId="0">
       <selection activeCell="C133" sqref="A133:XFD133"/>
     </sheetView>
   </sheetViews>
@@ -15250,8 +15250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Documents\teamMssan\仕様書とか\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Documents\teamMassan\仕様書とか\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -6693,7 +6693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C124" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C133" sqref="A133:XFD133"/>
     </sheetView>
   </sheetViews>
@@ -15250,8 +15250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16066,7 +16066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="5"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="848">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -6070,6 +6070,31 @@
   </si>
   <si>
     <t>hometown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムネイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>否</t>
+    <rPh sb="0" eb="1">
+      <t>イナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名を保管</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6123,7 +6148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -6266,11 +6291,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6330,6 +6394,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6693,8 +6760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C133" sqref="A133:XFD133"/>
+    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:XFD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15248,10 +15315,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15470,41 +15537,56 @@
         <v>803</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="E11" s="28">
+        <v>50</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>8</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -15512,10 +15594,8 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>826</v>
-      </c>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -15523,14 +15603,12 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
-      <c r="C17" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>827</v>
-      </c>
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -15538,11 +15616,11 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
-      <c r="C18" s="19" t="s">
-        <v>829</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>839</v>
+      <c r="C18" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>827</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -15552,57 +15630,70 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="21" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+      <c r="C20" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="21" t="s">
         <v>832</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="23" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C24" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="24" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C25" s="24" t="s">
         <v>834</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="25" t="s">
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="25" t="s">
         <v>835</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D26" s="22" t="s">
         <v>843</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
       <formula1>"TEXT,NUMERIC,INTEGER,REAL,NONE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16066,7 +16157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -6391,12 +6391,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -15318,7 +15318,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15538,24 +15538,24 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>844</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>845</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>50</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28" t="s">
         <v>847</v>
       </c>
     </row>
@@ -16260,90 +16260,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>815</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16466,90 +16466,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>817</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="2"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,17 @@
     <sheet name="ジャンルマスタ" sheetId="6" r:id="rId5"/>
     <sheet name="作者" sheetId="8" r:id="rId6"/>
     <sheet name="サークル名" sheetId="16" r:id="rId7"/>
+    <sheet name="本棚" sheetId="17" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">サンプルデータ!$B$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="857">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -5728,13 +5724,6 @@
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保管場所</t>
-    <rPh sb="0" eb="4">
-      <t>ホカンバショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6095,6 +6084,82 @@
   </si>
   <si>
     <t>thumbnail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_house_shelf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住居本棚マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウキョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本棚コード</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本棚名</t>
+    <rPh sb="0" eb="2">
+      <t>ホンダナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管家コード</t>
+    <rPh sb="0" eb="2">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管家</t>
+    <rPh sb="0" eb="2">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookshelf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本棚ID</t>
+    <rPh sb="0" eb="2">
+      <t>ホンダナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shelf_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shelf_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6334,7 +6399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6361,11 +6426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6397,6 +6458,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -15002,11 +15071,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15317,8 +15381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15345,7 +15409,7 @@
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>731</v>
@@ -15439,7 +15503,7 @@
         <v>777</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -15464,7 +15528,7 @@
         <v>777</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -15489,7 +15553,7 @@
         <v>777</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -15512,7 +15576,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -15538,54 +15602,74 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="E11" s="25">
+        <v>50</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="24">
+        <v>9</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="E12" s="25">
+        <v>8</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25" t="s">
         <v>844</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>847</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="E11" s="27">
-        <v>50</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>9</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>774</v>
-      </c>
-      <c r="E12" s="15">
-        <v>8</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
-        <v>845</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>831</v>
-      </c>
+      <c r="H12" s="29" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="E13" s="31">
+        <v>3</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -15605,7 +15689,7 @@
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -15616,11 +15700,11 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
-      <c r="C18" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>827</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>826</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -15629,11 +15713,11 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
-      <c r="C19" s="19" t="s">
-        <v>829</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>839</v>
+      <c r="C19" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>838</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -15642,11 +15726,11 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
-      <c r="C20" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>840</v>
+      <c r="C20" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>839</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -15654,46 +15738,46 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="21" t="s">
-        <v>832</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>841</v>
+      <c r="C21" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C24" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C25" s="22" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C25" s="24" t="s">
+      <c r="D25" s="13" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="20" t="s">
         <v>842</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="25" t="s">
-        <v>835</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>843</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13">
       <formula1>"TEXT,NUMERIC,INTEGER,REAL,NONE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15733,7 +15817,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15793,7 +15877,7 @@
         <v>805</v>
       </c>
       <c r="C5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -15823,13 +15907,13 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -15945,7 +16029,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16005,7 +16089,7 @@
         <v>782</v>
       </c>
       <c r="C5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -16023,13 +16107,13 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -16184,7 +16268,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16226,7 +16310,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G4" t="s">
         <v>742</v>
@@ -16260,90 +16344,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="29" t="s">
-        <v>815</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="28" t="s">
+        <v>814</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16390,7 +16474,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16446,7 +16530,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -16455,7 +16539,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -16466,90 +16550,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="28" t="s">
+        <v>816</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16563,4 +16647,219 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D3" t="s">
+        <v>733</v>
+      </c>
+      <c r="E3" t="s">
+        <v>734</v>
+      </c>
+      <c r="F3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G3" t="s">
+        <v>736</v>
+      </c>
+      <c r="H3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D4" t="s">
+        <v>774</v>
+      </c>
+      <c r="E4">
+        <f>同人誌マスタ!E12</f>
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>785</v>
+      </c>
+      <c r="G4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C5" t="s">
+        <v>855</v>
+      </c>
+      <c r="D5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E5">
+        <f>同人誌マスタ!E13</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>850</v>
+      </c>
+      <c r="C6" t="s">
+        <v>856</v>
+      </c>
+      <c r="D6" t="s">
+        <v>774</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7 D17:D21">
+      <formula1>"TEXT,NUMERIC,INTEGER,REAL,NONE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -19,7 +19,8 @@
     <sheet name="ジャンルマスタ" sheetId="6" r:id="rId5"/>
     <sheet name="作者" sheetId="8" r:id="rId6"/>
     <sheet name="サークル名" sheetId="16" r:id="rId7"/>
-    <sheet name="本棚" sheetId="17" r:id="rId8"/>
+    <sheet name="保管場所" sheetId="18" r:id="rId8"/>
+    <sheet name="本棚" sheetId="17" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">サンプルデータ!$B$1:$J$1</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="860">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -5964,35 +5965,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索の利便性を考慮し新規追加
-ラジオボタンより選択した値</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リベン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R-18</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6124,30 +6096,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保管家コード</t>
-    <rPh sb="0" eb="2">
-      <t>ホカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保管家</t>
-    <rPh sb="0" eb="2">
-      <t>ホカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bookshelf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本棚ID</t>
     <rPh sb="0" eb="2">
       <t>ホンダナ</t>
@@ -6160,6 +6108,101 @@
   </si>
   <si>
     <t>shelf_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookShelf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管場所コード</t>
+    <rPh sb="0" eb="2">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管場所名</t>
+    <rPh sb="0" eb="4">
+      <t>ホカンバショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管場所</t>
+    <rPh sb="0" eb="2">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">検索の利便性を考慮し新規追加
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コンボボックス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>より選択した値</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リベン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>place_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6167,7 +6210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6203,6 +6246,22 @@
       <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6399,7 +6458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6458,14 +6517,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -15382,7 +15445,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15606,10 +15669,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>774</v>
@@ -15620,7 +15683,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
@@ -15628,39 +15691,39 @@
         <v>9</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>810</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>774</v>
+      <c r="D12" s="33" t="s">
+        <v>775</v>
       </c>
       <c r="E12" s="25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>830</v>
+        <v>843</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>10</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>854</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>853</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <v>3</v>
       </c>
       <c r="F13" s="14"/>
@@ -15717,7 +15780,7 @@
         <v>828</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -15730,7 +15793,7 @@
         <v>829</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -15739,39 +15802,39 @@
     </row>
     <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C21" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C24" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>835</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C25" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C26" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -16089,7 +16152,7 @@
         <v>782</v>
       </c>
       <c r="C5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -16344,90 +16407,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>814</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16550,90 +16613,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>816</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16651,10 +16714,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16669,13 +16732,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B1" t="s">
         <v>776</v>
       </c>
       <c r="C1" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -16709,17 +16772,17 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C4" t="s">
         <v>810</v>
       </c>
       <c r="D4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E4">
         <f>同人誌マスタ!E12</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>785</v>
@@ -16733,10 +16796,206 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="C5" t="s">
+        <v>859</v>
+      </c>
+      <c r="D5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D20 D4:D6">
+      <formula1>"TEXT,NUMERIC,INTEGER,REAL,NONE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D3" t="s">
+        <v>733</v>
+      </c>
+      <c r="E3" t="s">
+        <v>734</v>
+      </c>
+      <c r="F3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G3" t="s">
+        <v>736</v>
+      </c>
+      <c r="H3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>855</v>
+      </c>
+      <c r="C4" t="s">
+        <v>810</v>
+      </c>
+      <c r="D4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E4">
+        <f>同人誌マスタ!E12</f>
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>785</v>
+      </c>
+      <c r="G4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C5" t="s">
+        <v>851</v>
       </c>
       <c r="D5" t="s">
         <v>775</v>
@@ -16752,10 +17011,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C6" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D6" t="s">
         <v>774</v>

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" activeTab="7"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="859">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -5725,10 +5725,6 @@
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>place</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6103,15 +6099,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shelf_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>shelf_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bookShelf</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6203,6 +6191,14 @@
   </si>
   <si>
     <t>place_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>place_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookShelf_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6525,10 +6521,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -15444,8 +15440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15472,7 +15468,7 @@
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>731</v>
@@ -15566,7 +15562,7 @@
         <v>777</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -15591,7 +15587,7 @@
         <v>777</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -15616,7 +15612,7 @@
         <v>777</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -15639,7 +15635,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -15669,10 +15665,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>774</v>
@@ -15683,7 +15679,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="26" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
@@ -15691,12 +15687,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>857</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>775</v>
       </c>
       <c r="E12" s="25">
@@ -15704,10 +15700,10 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -15715,10 +15711,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>775</v>
@@ -15732,7 +15728,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -15752,7 +15748,7 @@
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -15764,10 +15760,10 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -15777,10 +15773,10 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -15790,10 +15786,10 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -15802,39 +15798,39 @@
     </row>
     <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C21" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C24" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>834</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C25" s="22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C26" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -15880,7 +15876,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -15940,7 +15936,7 @@
         <v>805</v>
       </c>
       <c r="C5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -15970,13 +15966,13 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -16092,7 +16088,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16152,7 +16148,7 @@
         <v>782</v>
       </c>
       <c r="C5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -16170,13 +16166,13 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -16331,7 +16327,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16373,7 +16369,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G4" t="s">
         <v>742</v>
@@ -16407,90 +16403,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16537,7 +16533,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16593,7 +16589,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -16602,7 +16598,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -16613,90 +16609,90 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="32" t="s">
-        <v>816</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16716,7 +16712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -16732,18 +16728,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B1" t="s">
         <v>776</v>
       </c>
       <c r="C1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16772,10 +16768,11 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>855</v>
-      </c>
-      <c r="C4" t="s">
-        <v>810</v>
+        <v>852</v>
+      </c>
+      <c r="C4" t="str">
+        <f>同人誌マスタ!C12</f>
+        <v>place_ID</v>
       </c>
       <c r="D4" t="s">
         <v>775</v>
@@ -16796,10 +16793,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>853</v>
+      </c>
+      <c r="C5" t="s">
         <v>856</v>
-      </c>
-      <c r="C5" t="s">
-        <v>859</v>
       </c>
       <c r="D5" t="s">
         <v>774</v>
@@ -16913,7 +16910,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16928,18 +16925,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B1" t="s">
         <v>776</v>
       </c>
       <c r="C1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B3" t="s">
         <v>731</v>
@@ -16968,10 +16965,11 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>855</v>
-      </c>
-      <c r="C4" t="s">
-        <v>810</v>
+        <v>852</v>
+      </c>
+      <c r="C4" t="str">
+        <f>同人誌マスタ!C12</f>
+        <v>place_ID</v>
       </c>
       <c r="D4" t="s">
         <v>775</v>
@@ -16992,10 +16990,11 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>848</v>
-      </c>
-      <c r="C5" t="s">
-        <v>851</v>
+        <v>847</v>
+      </c>
+      <c r="C5" t="str">
+        <f>同人誌マスタ!C13</f>
+        <v>bookShelf_ID</v>
       </c>
       <c r="D5" t="s">
         <v>775</v>
@@ -17011,10 +17010,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D6" t="s">
         <v>774</v>

--- a/仕様書とか/同人誌DB定義書.xlsx
+++ b/仕様書とか/同人誌DB定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="778" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルデータ" sheetId="1" r:id="rId1"/>
@@ -6454,7 +6454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6525,6 +6525,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -15440,8 +15443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15689,7 +15692,7 @@
       <c r="B12" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="32" t="s">
         <v>857</v>
       </c>
       <c r="D12" s="32" t="s">
@@ -15710,13 +15713,13 @@
       <c r="A13" s="29">
         <v>10</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="34" t="s">
         <v>849</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="35" t="s">
         <v>858</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="36" t="s">
         <v>775</v>
       </c>
       <c r="E13" s="30">
@@ -16506,8 +16509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
